--- a/xls2xml/tests_box/input_box_test_shows.xlsx
+++ b/xls2xml/tests_box/input_box_test_shows.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="142">
   <si>
     <t xml:space="preserve">uuid_box</t>
   </si>
@@ -436,6 +436,9 @@
     <t xml:space="preserve">synopsis</t>
   </si>
   <si>
+    <t xml:space="preserve">id_season</t>
+  </si>
+  <si>
     <t xml:space="preserve">season</t>
   </si>
   <si>
@@ -448,10 +451,16 @@
     <t xml:space="preserve">por:A Lista|eng:The List</t>
   </si>
   <si>
+    <t xml:space="preserve">3ee50673-3b99-4cf9-8fb2-1ad5223f4688</t>
+  </si>
+  <si>
     <t xml:space="preserve">Primeira temporada</t>
   </si>
   <si>
     <t xml:space="preserve">82ff8ec9-8466-4d45-bffb-ce1faaf7539b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19e1327c-7c0f-491f-9ef0-0365641cb9a1</t>
   </si>
   <si>
     <t xml:space="preserve">Segunda temporada</t>
@@ -749,14 +758,16 @@
   </sheetPr>
   <dimension ref="A1:AO7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB2" activeCellId="0" sqref="AB2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="6" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="6" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="19.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="16" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="54.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="49.49"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="29" style="2" width="11.52"/>
@@ -1849,19 +1860,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="175.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,7 +1892,9 @@
       <c r="E1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -1889,39 +1903,46 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>138</v>
+      <c r="F3" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/xls2xml/tests_box/input_box_test_shows.xlsx
+++ b/xls2xml/tests_box/input_box_test_shows.xlsx
@@ -436,7 +436,7 @@
     <t xml:space="preserve">synopsis</t>
   </si>
   <si>
-    <t xml:space="preserve">id_season</t>
+    <t xml:space="preserve">id season</t>
   </si>
   <si>
     <t xml:space="preserve">season</t>
@@ -451,19 +451,19 @@
     <t xml:space="preserve">por:A Lista|eng:The List</t>
   </si>
   <si>
+    <t xml:space="preserve">por:A melhor série de contagem regressiva de esportes. Com temas icônicos focados nos momentos e indivíduos mais memoráveis do esporte.|eng:English Synopsis</t>
+  </si>
+  <si>
     <t xml:space="preserve">3ee50673-3b99-4cf9-8fb2-1ad5223f4688</t>
   </si>
   <si>
-    <t xml:space="preserve">Primeira temporada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">82ff8ec9-8466-4d45-bffb-ce1faaf7539b</t>
+    <t xml:space="preserve">por:Primeira temporada|eng:First season</t>
   </si>
   <si>
     <t xml:space="preserve">19e1327c-7c0f-491f-9ef0-0365641cb9a1</t>
   </si>
   <si>
-    <t xml:space="preserve">Segunda temporada</t>
+    <t xml:space="preserve">por:Segunda temporada|eng:Second Season</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1863,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1913,27 +1913,27 @@
         <v>136</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>140</v>

--- a/xls2xml/tests_box/input_box_test_shows.xlsx
+++ b/xls2xml/tests_box/input_box_test_shows.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="148">
   <si>
     <t xml:space="preserve">uuid_box</t>
   </si>
@@ -464,6 +464,24 @@
   </si>
   <si>
     <t xml:space="preserve">por:Segunda temporada|eng:Second Season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5980a7b0-a9e5-4368-8110-cd298a68e571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Terceira temporada|eng:Third season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6585739f-91e3-4cdc-a7dd-62af9dd6adbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Quarta temporada|eng:Fourth Season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Quinta temporada|eng:Fifth season</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por:Sexta temporada|eng:Sixth Season</t>
   </si>
 </sst>
 </file>
@@ -759,24 +777,58 @@
   <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="6" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="19.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="16" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="54.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="49.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="29" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="249" min="37" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1008" min="250" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1009" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="46.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="46.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="16.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="22.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="35.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="22.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="19.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="22.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="6.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="11.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="9.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="15.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="22.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="16.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="8.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="2" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="17.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="113.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="146.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="2" width="12.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="2" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="10.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="2" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="11.01"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="11.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="19.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="3" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="3" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="3" width="13.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="3" width="17.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="3" width="20.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="249" min="42" style="3" width="11.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1008" min="250" style="2" width="11.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1009" style="1" width="11.8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +953,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -996,7 +1048,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
@@ -1091,7 +1143,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
@@ -1186,7 +1238,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
@@ -1281,7 +1333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
@@ -1376,7 +1428,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
@@ -1860,20 +1912,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="123.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="146.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1943,6 +1995,86 @@
       </c>
       <c r="F3" s="8" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
